--- a/lib/Prise_services.xlsx
+++ b/lib/Prise_services.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="3255" windowHeight="8460" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="585" windowWidth="21015" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="Entrée" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
   <si>
     <t>LIE_CODE</t>
   </si>
@@ -48,6 +48,9 @@
     <t>VACPNTG_PNTGOP_UPDATE_MEMO</t>
   </si>
   <si>
+    <t>TYPE</t>
+  </si>
+  <si>
     <t>TEMPS_REST</t>
   </si>
   <si>
@@ -63,37 +66,112 @@
     <t>BONBON Délicieux</t>
   </si>
   <si>
+    <t>605040302</t>
+  </si>
+  <si>
     <t>Pierrick</t>
   </si>
   <si>
+    <t>422419</t>
+  </si>
+  <si>
+    <t>7/2/25 20:00</t>
+  </si>
+  <si>
+    <t>7/3/25 8:00</t>
+  </si>
+  <si>
     <t>NULL</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>76262</t>
+  </si>
+  <si>
+    <t>142320</t>
+  </si>
+  <si>
     <t>MELCHIORRE GERALD</t>
   </si>
   <si>
+    <t>602030406</t>
+  </si>
+  <si>
+    <t>422847</t>
+  </si>
+  <si>
     <t>PIERRICK</t>
   </si>
   <si>
     <t>SVR_NOM 86710 TEXT ERIC</t>
   </si>
   <si>
+    <t>662057140</t>
+  </si>
+  <si>
+    <t>424862</t>
+  </si>
+  <si>
+    <t>7/3/25 7:00</t>
+  </si>
+  <si>
+    <t>7/3/25 16:45</t>
+  </si>
+  <si>
+    <t>36662</t>
+  </si>
+  <si>
     <t>BMSOFT 05 Salarié</t>
   </si>
   <si>
+    <t>673644897</t>
+  </si>
+  <si>
+    <t>424865</t>
+  </si>
+  <si>
+    <t>7/3/25 10:00</t>
+  </si>
+  <si>
+    <t>7/3/25 17:30</t>
+  </si>
+  <si>
+    <t>25862</t>
+  </si>
+  <si>
     <t xml:space="preserve"> BM-ACCUEIL2</t>
   </si>
   <si>
     <t xml:space="preserve"> SALAIRE Accueil-T</t>
   </si>
   <si>
+    <t>424863</t>
+  </si>
+  <si>
+    <t>7/3/25 23:30</t>
+  </si>
+  <si>
+    <t>-1138</t>
+  </si>
+  <si>
     <t>BM-SAL08</t>
   </si>
   <si>
     <t>DEMO TEST</t>
   </si>
   <si>
-    <t>TYPE</t>
+    <t>424864</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>33062</t>
+  </si>
+  <si>
+    <t>1562</t>
   </si>
 </sst>
 </file>
@@ -102,7 +180,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -129,20 +207,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -216,6 +293,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -250,6 +328,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -284,20 +363,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -419,35 +494,61 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="15.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,242 +580,246 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>605040302</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>422419</v>
-      </c>
-      <c r="H2" s="1">
-        <v>45840.833333333336</v>
-      </c>
-      <c r="I2" s="1">
-        <v>45841.333333333336</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>76262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>142320</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
-        <v>602030406</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>422847</v>
-      </c>
-      <c r="H3" s="1">
-        <v>45840.833333333336</v>
-      </c>
-      <c r="I3" s="1">
-        <v>45841.333333333336</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>76262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>662057140</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>424862</v>
-      </c>
-      <c r="H4" s="1">
-        <v>45841.291666666664</v>
-      </c>
-      <c r="I4" s="1">
-        <v>45841.697916666664</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>36662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>673644897</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5">
-        <v>424865</v>
-      </c>
-      <c r="H5" s="1">
-        <v>45841.416666666664</v>
-      </c>
-      <c r="I5" s="1">
-        <v>45841.729166666664</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>25862</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="K7" t="s">
         <v>22</v>
       </c>
-      <c r="E6">
-        <v>605040302</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>424863</v>
-      </c>
-      <c r="H6" s="1">
-        <v>45841.729166666664</v>
-      </c>
-      <c r="I6" s="1">
-        <v>45841.979166666664</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>-1138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>602030406</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>424864</v>
-      </c>
-      <c r="H7" s="1">
-        <v>45841.729166666664</v>
-      </c>
-      <c r="I7" s="1">
-        <v>45841.979166666664</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>-1138</v>
-      </c>
-    </row>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:L7" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -722,27 +827,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="15.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -774,166 +863,169 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>605040302</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>422419</v>
-      </c>
-      <c r="H2" s="1">
-        <v>45840.833333333336</v>
-      </c>
-      <c r="I2" s="1">
-        <v>45841.333333333336</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>33062</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>142320</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
-        <v>602030406</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>422847</v>
-      </c>
-      <c r="H3" s="1">
-        <v>45840.833333333336</v>
-      </c>
-      <c r="I3" s="1">
-        <v>45841.333333333336</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>33062</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>662057140</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>424862</v>
-      </c>
-      <c r="H4" s="1">
-        <v>45841.291666666664</v>
-      </c>
-      <c r="I4" s="1">
-        <v>45841.697916666664</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>673644897</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5">
-        <v>424865</v>
-      </c>
-      <c r="H5" s="1">
-        <v>45841.416666666664</v>
-      </c>
-      <c r="I5" s="1">
-        <v>45841.729166666664</v>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>-1138</v>
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:L5" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -946,5 +1038,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>